--- a/Team-Data/2013-14/12-19-2013-14.xlsx
+++ b/Team-Data/2013-14/12-19-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -801,7 +868,7 @@
         <v>15</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>24</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1144,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="AP4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ4" t="n">
         <v>16</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1311,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>30</v>
@@ -1326,13 +1393,13 @@
         <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -1394,64 +1461,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.36</v>
+        <v>0.375</v>
       </c>
       <c r="H6" t="n">
         <v>48.8</v>
       </c>
       <c r="I6" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="J6" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.418</v>
+        <v>0.42</v>
       </c>
       <c r="L6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M6" t="n">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.321</v>
+        <v>0.325</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="P6" t="n">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.771</v>
+        <v>0.773</v>
       </c>
       <c r="R6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S6" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T6" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="U6" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V6" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X6" t="n">
         <v>4.8</v>
@@ -1460,40 +1527,40 @@
         <v>6.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-2.2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI6" t="n">
         <v>28</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1502,13 +1569,13 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
         <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
@@ -1541,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
@@ -1711,7 +1778,7 @@
         <v>16</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1851,7 +1918,7 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>1.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
@@ -2069,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2282,7 @@
         <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>5</v>
@@ -2224,7 +2291,7 @@
         <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM10" t="n">
         <v>19</v>
@@ -2269,7 +2336,7 @@
         <v>14</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -2304,49 +2371,49 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
         <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.519</v>
+        <v>0.538</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J11" t="n">
-        <v>82.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.465</v>
       </c>
       <c r="L11" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M11" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.403</v>
+        <v>0.41</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P11" t="n">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="R11" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S11" t="n">
         <v>34.8</v>
@@ -2355,49 +2422,49 @@
         <v>45.5</v>
       </c>
       <c r="U11" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V11" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X11" t="n">
         <v>4.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z11" t="n">
         <v>22.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB11" t="n">
         <v>103</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
@@ -2418,13 +2485,13 @@
         <v>18</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AQ11" t="n">
         <v>24</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2433,13 +2500,13 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>28</v>
       </c>
       <c r="AW11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>12</v>
@@ -2451,7 +2518,7 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>5.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>7.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH13" t="n">
         <v>20</v>
@@ -2821,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="BC13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -2958,10 +3025,10 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -2985,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>22</v>
@@ -2994,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-3.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>20</v>
@@ -3304,13 +3371,13 @@
         <v>20</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI16" t="n">
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3543,7 +3610,7 @@
         <v>11</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3725,7 +3792,7 @@
         <v>15</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>
@@ -3871,7 +3938,7 @@
         <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>-0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>18</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>17</v>
@@ -4071,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>2</v>
@@ -4089,7 +4156,7 @@
         <v>21</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
         <v>11</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4220,7 +4287,7 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.84</v>
+        <v>0.833</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
         <v>83.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.47</v>
+        <v>0.468</v>
       </c>
       <c r="L22" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M22" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.338</v>
+        <v>0.329</v>
       </c>
       <c r="O22" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="P22" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S22" t="n">
         <v>36.1</v>
       </c>
       <c r="T22" t="n">
-        <v>47.4</v>
+        <v>47.5</v>
       </c>
       <c r="U22" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
         <v>16.4</v>
       </c>
       <c r="W22" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
         <v>6.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,31 +4463,31 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
       </c>
       <c r="AL22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP22" t="n">
         <v>4</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>6</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -4435,13 +4502,13 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>26</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4450,16 +4517,16 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
         <v>4</v>
       </c>
       <c r="BC22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>27</v>
@@ -4778,7 +4845,7 @@
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
         <v>22</v>
@@ -4799,7 +4866,7 @@
         <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5324,7 +5391,7 @@
         <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>6</v>
@@ -5351,7 +5418,7 @@
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" t="n">
         <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
@@ -5416,67 +5483,67 @@
         <v>41.2</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.491</v>
+        <v>0.493</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="P28" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="R28" t="n">
         <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U28" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="V28" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="W28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="AB28" t="n">
         <v>103.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5533,7 +5600,7 @@
         <v>14</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
         <v>25</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5743,7 @@
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
@@ -5688,7 +5755,7 @@
         <v>13</v>
       </c>
       <c r="AN29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-1.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-19-2013-14</t>
+          <t>2013-12-19</t>
         </is>
       </c>
     </row>
